--- a/data/trans_camb/P16A_n_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>5.191652882623099</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14.95399737157598</v>
+        <v>14.95399737157599</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>15.69587888209083</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.036986002410865</v>
+        <v>5.977406774814672</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7683530912684409</v>
+        <v>1.108163241692061</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.5285939258167</v>
+        <v>10.21967149703315</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.18053591630637</v>
+        <v>10.51081606536924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.845078252048553</v>
+        <v>5.718046741195508</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.32243968900926</v>
+        <v>11.33514376165182</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.593928749868912</v>
+        <v>10.27599149761954</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.525713754825554</v>
+        <v>4.479635728300343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.61516701691683</v>
+        <v>12.70314819312638</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.04949116907381</v>
+        <v>15.1522363061523</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.58969778890657</v>
+        <v>9.563452962201021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.70527465683131</v>
+        <v>19.63882771228452</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.67984971416619</v>
+        <v>20.85378874650699</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.70498542089855</v>
+        <v>16.10742077086375</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.42293324861316</v>
+        <v>20.46103390815657</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.49636221724078</v>
+        <v>16.5160473463626</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.97355792481431</v>
+        <v>10.93082437540806</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.76758699300301</v>
+        <v>18.58144821038855</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3024027174656638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8710384812657487</v>
+        <v>0.871038481265749</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5949777427809561</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3128133988859129</v>
+        <v>0.3069124440131511</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02384074084411393</v>
+        <v>0.06104252273884975</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5220058810909757</v>
+        <v>0.5327769974057817</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3551819942262391</v>
+        <v>0.3688383004303315</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1922374612519648</v>
+        <v>0.1924563767358803</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.37956419967248</v>
+        <v>0.3836302620638084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4060061506912354</v>
+        <v>0.4416411843928583</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1900654018680088</v>
+        <v>0.2008262787197104</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5373922742009736</v>
+        <v>0.5388880051394604</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9937519832635707</v>
+        <v>1.010474221989432</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6116377543820533</v>
+        <v>0.6184104212954292</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.308437798981606</v>
+        <v>1.30727078312844</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8610752129113101</v>
+        <v>0.8846715040032371</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.642610236875839</v>
+        <v>0.6641819263123073</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8610849947738619</v>
+        <v>0.8467419333315808</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8090217139162902</v>
+        <v>0.8186566714541663</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.536900067129003</v>
+        <v>0.5462293266198847</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9333043793848761</v>
+        <v>0.9211541373867826</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.19158317834289</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>11.11816350330553</v>
+        <v>11.11816350330552</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.628618019891553</v>
@@ -878,7 +878,7 @@
         <v>5.17841546399585</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.499135344277088</v>
+        <v>9.499135344277082</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.713169208041872</v>
+        <v>2.662020892424965</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.268323531768558</v>
+        <v>1.761874379033526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.711714968485412</v>
+        <v>3.912960800725189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.414136397628207</v>
+        <v>4.644967373645662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.2688209333172</v>
+        <v>0.872687269093117</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.203291017447332</v>
+        <v>7.226942735402075</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.77282678163322</v>
+        <v>4.76724418633798</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.340375438966951</v>
+        <v>2.135345733968678</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.729735080505332</v>
+        <v>6.64243406328638</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.06847434320108</v>
+        <v>10.42631183300544</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.505026696569617</v>
+        <v>9.315638572177566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.15166455694496</v>
+        <v>11.51280114209633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.86503410265645</v>
+        <v>13.11577462667787</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.36884115604793</v>
+        <v>9.321076167122424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.26873979749205</v>
+        <v>15.16885593415428</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.59021857197118</v>
+        <v>10.35554993856488</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.722410368457004</v>
+        <v>7.900211137506311</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.11731252689102</v>
+        <v>12.38142240782811</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1806900042708917</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3869611526744305</v>
+        <v>0.3869611526744303</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3251597900829944</v>
@@ -983,7 +983,7 @@
         <v>0.2207231350219524</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4048881260617895</v>
+        <v>0.4048881260617893</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1362554845033404</v>
+        <v>0.1267038340337865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06077330628890841</v>
+        <v>0.08721043158362518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1860825239794899</v>
+        <v>0.1899548290357807</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1457851054040976</v>
+        <v>0.1488941380088789</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03913879690265816</v>
+        <v>0.02735025492804974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.21850842042185</v>
+        <v>0.2327587012775346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1907324752089275</v>
+        <v>0.1899861864339175</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09153379517531862</v>
+        <v>0.08552670638435063</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2724481184171172</v>
+        <v>0.263940353296558</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6177399975618437</v>
+        <v>0.6354526564127739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5241315432896748</v>
+        <v>0.5692794871033954</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6810435668100532</v>
+        <v>0.6898924268669551</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4846487185459771</v>
+        <v>0.4898272454441707</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3525590066610501</v>
+        <v>0.3438306932218019</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5797033454716376</v>
+        <v>0.5759829770705277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4777210272347749</v>
+        <v>0.4685091475299549</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.345171394792393</v>
+        <v>0.3575384044462968</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5583830341002901</v>
+        <v>0.5630300569196081</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.8894225585334703</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.51818036798133</v>
+        <v>6.518180367981335</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.942264335641998</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.463307366514342</v>
+        <v>1.486317552117794</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9835939320392667</v>
+        <v>0.7464199255931874</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.718978065262544</v>
+        <v>9.388542984658049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.655086895915053</v>
+        <v>3.369514527122751</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.415118944116098</v>
+        <v>-5.803848474815797</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.36822402841959</v>
+        <v>1.810509786742255</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.526388943062955</v>
+        <v>3.745315615147461</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.219064385521531</v>
+        <v>-1.326756659467687</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.759180475136568</v>
+        <v>7.096488650542733</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.11971776916712</v>
+        <v>9.951250582694218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.968966731403508</v>
+        <v>8.962151565223277</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.51787362977338</v>
+        <v>18.33311943305327</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.9368547397058</v>
+        <v>13.4589602819873</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.003907229279708</v>
+        <v>3.615921288618642</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.7216116136425</v>
+        <v>11.21155676438706</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.39608847496896</v>
+        <v>10.40502008900002</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.442389825117274</v>
+        <v>5.246755721788012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.42928180794903</v>
+        <v>13.8161997437217</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.02850315424799994</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2088868768419767</v>
+        <v>0.2088868768419769</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.291430747938512</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07685320597324893</v>
+        <v>0.07356844718741742</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.05139248754295294</v>
+        <v>0.0467006801346297</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5232466104711424</v>
+        <v>0.5252460073958723</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.08027124532254921</v>
+        <v>0.09962851480249051</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1657199920277242</v>
+        <v>-0.17387272978583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04106112859708455</v>
+        <v>0.05570842220580906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1384959764368447</v>
+        <v>0.1461573899876152</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04526009052522997</v>
+        <v>-0.05303959093064703</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2614504441573781</v>
+        <v>0.2808076429452239</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7088893658908959</v>
+        <v>0.7052535364850181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6154694579408747</v>
+        <v>0.6484730432769238</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.30899513868393</v>
+        <v>1.282192281878263</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4542235993814578</v>
+        <v>0.4713460660797443</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1387558297003671</v>
+        <v>0.1272906256675727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3726187883761274</v>
+        <v>0.385743882470851</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4733609273175426</v>
+        <v>0.4731389412560295</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.247350547000228</v>
+        <v>0.2370879478458361</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6038439691342465</v>
+        <v>0.6245918719969498</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>5.62864795197659</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.681872639498328</v>
+        <v>9.681872639498323</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.345901893070934</v>
@@ -1306,7 +1306,7 @@
         <v>6.204234041763357</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>11.58966286124709</v>
+        <v>11.5896628612471</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.088111238091673</v>
+        <v>5.078693569681251</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.203248889926534</v>
+        <v>2.80109853739927</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.992207888824138</v>
+        <v>9.63795853586436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.347582280567549</v>
+        <v>5.635447051549107</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.157485830152721</v>
+        <v>1.853130907312256</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.630141789071633</v>
+        <v>5.831785449472891</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.302083168537267</v>
+        <v>6.378189559598306</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.074936714423262</v>
+        <v>3.092470438444162</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.962687102221174</v>
+        <v>8.553443017186154</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.1122938360695</v>
+        <v>12.9720385844792</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.14585132059701</v>
+        <v>10.33050880654043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.50201180886948</v>
+        <v>17.58277099051469</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.3898298512276</v>
+        <v>13.70635053863227</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.16029891511071</v>
+        <v>9.952963946175377</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.73659682103225</v>
+        <v>13.5450150408873</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.15664591960352</v>
+        <v>12.33257945580434</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.858595048660511</v>
+        <v>9.098111347516047</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.31261007636765</v>
+        <v>14.19512023014213</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1753992522158378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3017053536667964</v>
+        <v>0.3017053536667962</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3698837098926051</v>
@@ -1411,7 +1411,7 @@
         <v>0.2455456017691373</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4586852659667739</v>
+        <v>0.4586852659667742</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2560001780205938</v>
+        <v>0.2526737722171348</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1630451364589014</v>
+        <v>0.139684858128132</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5003091964666915</v>
+        <v>0.4779637039255831</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1530340256937501</v>
+        <v>0.1596646431374437</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03127219508435933</v>
+        <v>0.05376028860921422</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1640207568607908</v>
+        <v>0.1720794454238645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2326033567182383</v>
+        <v>0.2358500477497852</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.115153083617096</v>
+        <v>0.1132777610171644</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3370313435455836</v>
+        <v>0.3233755158146476</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8254559386199153</v>
+        <v>0.7909736372556846</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6257672622272722</v>
+        <v>0.6272819825105368</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.070974680258002</v>
+        <v>1.067157144726865</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4783150933988311</v>
+        <v>0.4617947054431437</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3383420582853873</v>
+        <v>0.3296818579628319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4583305516175553</v>
+        <v>0.4599664416590174</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5055401386789479</v>
+        <v>0.5141496250934654</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3705306560829795</v>
+        <v>0.3821062534942685</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6098930208198899</v>
+        <v>0.6001928724162829</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>5.488412264113957</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12.16403363535548</v>
+        <v>12.16403363535549</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>10.21874009539218</v>
@@ -1511,7 +1511,7 @@
         <v>5.023867198973791</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>10.65713413978221</v>
+        <v>10.6571341397822</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>9.052289984357387</v>
@@ -1520,7 +1520,7 @@
         <v>5.289452673888811</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>11.46746768586551</v>
+        <v>11.46746768586552</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.822111808453808</v>
+        <v>5.705386763584781</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.553678277590502</v>
+        <v>3.402843403780857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10.10387049227954</v>
+        <v>9.951018925211407</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.959048259164014</v>
+        <v>7.904754031496941</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.708451048811938</v>
+        <v>2.740514601984045</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.632203157722019</v>
+        <v>8.520907051689031</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.563440864180168</v>
+        <v>7.486187951791267</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.573082776985144</v>
+        <v>3.733736951315461</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.9671147359534</v>
+        <v>9.816877952777132</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.844776808689598</v>
+        <v>10.04704678660134</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.411216457766344</v>
+        <v>7.439273723419708</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.23310160970584</v>
+        <v>14.18884403967007</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.46151612115392</v>
+        <v>12.48001318536901</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.501693921155689</v>
+        <v>7.16659596781779</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.75451469584172</v>
+        <v>12.80208792550874</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.71599189704621</v>
+        <v>10.70258474032143</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.932483339932634</v>
+        <v>6.878363915405204</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.90120071946508</v>
+        <v>12.88494393963244</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.314333182074243</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.6966603847272546</v>
+        <v>0.6966603847272549</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3430766761215214</v>
@@ -1616,7 +1616,7 @@
         <v>0.1686677265308918</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.357795004425871</v>
+        <v>0.3577950044258709</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3816618922741307</v>
@@ -1625,7 +1625,7 @@
         <v>0.2230134606933027</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4834904122761126</v>
+        <v>0.4834904122761128</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3138283559053542</v>
+        <v>0.3129814217145261</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1909576744648331</v>
+        <v>0.1858510596789447</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5478280450994513</v>
+        <v>0.5418326113855176</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2573077578450207</v>
+        <v>0.2543931786546878</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08651804124169697</v>
+        <v>0.08929425133289012</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2755697592515572</v>
+        <v>0.2751478830586321</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3098749652379146</v>
+        <v>0.3078126255184651</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1474435457388514</v>
+        <v>0.1526831930801745</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4039844985158165</v>
+        <v>0.4023005380619922</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5901106215028546</v>
+        <v>0.6068048082089237</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4483097640261959</v>
+        <v>0.4531202289740998</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8696258862498087</v>
+        <v>0.8751178166327547</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4344917300830659</v>
+        <v>0.4332594991855628</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2619210355362934</v>
+        <v>0.2497786906083209</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4449030206151153</v>
+        <v>0.4516245715583109</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4696826415713122</v>
+        <v>0.4695917959616306</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3037789161152037</v>
+        <v>0.2978742057806212</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5607900540805281</v>
+        <v>0.560888861177227</v>
       </c>
     </row>
     <row r="34">
